--- a/GUISeleniumFramework/testdata/admin1testScriptdata.xlsx
+++ b/GUISeleniumFramework/testdata/admin1testScriptdata.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\GUIFramework_Main\GUISeleniumFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="4140" activeTab="1"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
   <si>
     <t>TC_ID</t>
   </si>
@@ -510,6 +514,54 @@
   </si>
   <si>
     <t>@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_ID </t>
+  </si>
+  <si>
+    <t>patientname</t>
+  </si>
+  <si>
+    <t>ph_no</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>medical history</t>
+  </si>
+  <si>
+    <t>addpatient</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>ravi@gmail.com</t>
+  </si>
+  <si>
+    <t>mandya</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>9865988877</t>
+  </si>
+  <si>
+    <t>delete user</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>maddur</t>
+  </si>
+  <si>
+    <t>chandan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -607,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -619,6 +671,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,8 +1087,9 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -1129,12 +1183,118 @@
       </c>
       <c r="H4" s="7"/>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="1@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
